--- a/ApolloQA/Data/RatingManual/SC/VA00060.ClassCode_VehicleAgeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00060.ClassCode_VehicleAgeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00060.ClassCode_VehicleAgeFactors" sheetId="1" r:id="Rf390f69c16ad4907"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00060.ClassCode_VehicleAgeFactors" sheetId="1" r:id="R120721d0ee234b28"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -799,6 +799,20 @@
         <x:v>703</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
@@ -1569,6 +1583,20 @@
         <x:v>705</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2.0388</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>16</x:v>
       </x:c>
       <x:c t="str">
@@ -2339,6 +2367,20 @@
         <x:v>826</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>826</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>8</x:v>
       </x:c>
       <x:c t="str">
@@ -3106,6 +3148,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>840</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>855</x:v>
       </x:c>
       <x:c t="str">
@@ -3879,6 +3935,20 @@
         <x:v>856</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>856</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>24</x:v>
       </x:c>
       <x:c t="str">
@@ -4639,6 +4709,20 @@
       </x:c>
       <x:c t="str">
         <x:v>14</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>1607</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
